--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/ARIZONA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/ARIZONA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1045"/>
+  <dimension ref="A1:D1039"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C7">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C11">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C53">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C58">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C96">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C99">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C114">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C121">
@@ -2216,7 +2216,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C140">
@@ -2242,7 +2242,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2299,7 +2299,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C146">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C159">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C172">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C176">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C183">
@@ -2915,12 +2915,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C193">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C196">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C200">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C205">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C209">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C212">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C216">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C224">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C230">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C238">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C245">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C249">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C250">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C262">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C269">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C273">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C281">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C286">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C288">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C289">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C290">
@@ -4238,7 +4238,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C294">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C298">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C300">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C301">
@@ -4391,7 +4391,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C305">
@@ -4404,7 +4404,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C306">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C309">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C310">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C311">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C316">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C317">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C320">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C324">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C325">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C327">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C328">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C330">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C333">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C346">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C348">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C350">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C352">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C355">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C369">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C372">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C380">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C381">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C383">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C384">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C388">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C391">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C392">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C393">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C395">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C401">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C402">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C406">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C408">
@@ -5792,7 +5792,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C412">
@@ -5805,7 +5805,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C413">
@@ -5909,7 +5909,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C421">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C431">
@@ -6117,7 +6117,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C437">
@@ -6195,7 +6195,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C443">
@@ -6260,7 +6260,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C448">
@@ -6273,7 +6273,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C449">
@@ -6299,7 +6299,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C451">
@@ -6338,7 +6338,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C454">
@@ -6351,7 +6351,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C455">
@@ -6364,7 +6364,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C456">
@@ -6390,7 +6390,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C458">
@@ -6455,7 +6455,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C463">
@@ -6481,7 +6481,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C465">
@@ -6494,7 +6494,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C466">
@@ -6611,7 +6611,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C475">
@@ -6624,7 +6624,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C476">
@@ -6676,7 +6676,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C480">
@@ -6689,7 +6689,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C481">
@@ -6728,7 +6728,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C484">
@@ -6928,7 +6928,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C499">
@@ -7630,7 +7630,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C553">
@@ -7960,7 +7960,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C578">
@@ -8038,7 +8038,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C584">
@@ -8160,7 +8160,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C593">
@@ -8199,7 +8199,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C596">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C616">
@@ -8521,7 +8521,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C620">
@@ -8573,7 +8573,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerero</t>
+          <t>Cuilápam De Guerero</t>
         </is>
       </c>
       <c r="C624">
@@ -8586,7 +8586,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C625">
@@ -8599,7 +8599,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C626">
@@ -8612,7 +8612,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C627">
@@ -8625,7 +8625,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C628">
@@ -8638,7 +8638,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C629">
@@ -8690,7 +8690,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C633">
@@ -8703,7 +8703,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C634">
@@ -8716,7 +8716,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C635">
@@ -8729,7 +8729,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C636">
@@ -8742,7 +8742,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C637">
@@ -8807,7 +8807,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C642">
@@ -9184,7 +9184,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C671">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C676">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C697">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C698">
@@ -9548,7 +9548,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C699">
@@ -9561,7 +9561,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C700">
@@ -9574,7 +9574,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C701">
@@ -9722,7 +9722,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C712">
@@ -9865,7 +9865,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C723">
@@ -9982,7 +9982,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C732">
@@ -10047,7 +10047,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C737">
@@ -10164,7 +10164,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C746">
@@ -10190,7 +10190,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C748">
@@ -10242,7 +10242,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C752">
@@ -10268,7 +10268,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C754">
@@ -10320,7 +10320,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C758">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C768">
@@ -10468,7 +10468,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C769">
@@ -10533,7 +10533,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C774">
@@ -10546,7 +10546,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C775">
@@ -10572,7 +10572,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C777">
@@ -10842,7 +10842,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C797">
@@ -10894,7 +10894,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C801">
@@ -11658,7 +11658,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C859">
@@ -11801,7 +11801,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C870">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C912">
@@ -12471,7 +12471,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C920">
@@ -12601,7 +12601,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C930">
@@ -12692,7 +12692,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C937">
@@ -12705,7 +12705,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C938">
@@ -12731,7 +12731,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C940">
@@ -12822,7 +12822,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C947">
@@ -12861,7 +12861,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C950">
@@ -12874,7 +12874,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C951">
@@ -12913,7 +12913,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C954">
@@ -13043,7 +13043,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C964">
@@ -13069,7 +13069,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C966">
@@ -13147,7 +13147,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C972">
@@ -13303,7 +13303,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C984">
@@ -13521,7 +13521,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1000">
@@ -13560,7 +13560,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1003">
@@ -13651,7 +13651,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1010">
@@ -13768,7 +13768,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1019">
@@ -13781,7 +13781,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1020">
@@ -13794,7 +13794,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1021">
@@ -13911,7 +13911,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1030">
@@ -13924,7 +13924,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1031">
@@ -13963,7 +13963,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1034">
@@ -14036,41 +14036,6 @@
       </c>
       <c r="D1039">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="B1041" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="B1042" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="B1043" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="B1044" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1045">
-      <c r="B1045" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
